--- a/Strategy 2/Strategy 2.xlsx
+++ b/Strategy 2/Strategy 2.xlsx
@@ -8,6 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2014" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2015" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2017" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,13 +422,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="30" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
@@ -434,6 +443,2449 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Averaeg Index Value</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>24550.18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Total Trades</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Total Win Trades</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Total Loose Trades</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hit Ratio/ Trade win Ratio</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>41.96</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Day win Ratio</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>72.31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>10393.94999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Gross Loss</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>-5038.549999999981</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Net Profit</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>5355.400000000005</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Max Draw Up</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1435.799999999996</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Max Draw Down</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>-1172.650000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Draw UP Percentage</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>197.93</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Draw Down Percentage</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>-81.67</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Average Trades</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>47.82</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Average Winning Trade</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>221.15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Average Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>-77.52</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Max Return/ Largest Winning Trade</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1344.799999999996</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Min Return/ Largest Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>-632.6500000000015</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Risk Reward</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>-2.13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Net Profit %</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>21.81</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="F10:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="10">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Averaeg Index Value</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Total Trades</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Total Win Trades</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Total Loose Trades</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hit Ratio/ Trade win Ratio</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Day win Ratio</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Gross Loss</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Net Profit</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Max Draw Up</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1435.799999999996</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Max Draw Down</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>-1172.650000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Draw UP Percentage</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>197.93</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Draw Down Percentage</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>-81.67</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Average Trades</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Average Winning Trade</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Average Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Max Return/ Largest Winning Trade</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Min Return/ Largest Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Risk Reward</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Net Profit %</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Return Per Year</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="F10:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="10">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Averaeg Index Value</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>15538.01</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Total Trades</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Total Win Trades</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Total Loose Trades</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hit Ratio/ Trade win Ratio</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>38.46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Day win Ratio</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2360.500000000002</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Gross Loss</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>-761.8499999999985</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Net Profit</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1598.650000000003</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Max Draw Up</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>927.6500000000015</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Max Draw Down</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>-561.7999999999993</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Draw UP Percentage</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>9006.309999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Draw Down Percentage</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>-253.06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Average Trades</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>61.49</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Average Winning Trade</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>236.05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Average Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>-47.62</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Max Return/ Largest Winning Trade</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>764.5499999999993</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Min Return/ Largest Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>-108.25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Risk Reward</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>-7.06</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Net Profit %</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Return Per Year</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1598.650000000003</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="F10:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="10">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Averaeg Index Value</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>19835.21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Total Trades</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Total Win Trades</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Total Loose Trades</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hit Ratio/ Trade win Ratio</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Day win Ratio</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>10.54999999999927</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Gross Loss</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>-22.70000000000073</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Net Profit</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>-12.15000000000146</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Max Draw Up</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>927.6500000000015</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Max Draw Down</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>-561.7999999999993</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Draw UP Percentage</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>9006.309999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Draw Down Percentage</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>-253.06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Average Trades</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>-6.08</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Average Winning Trade</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Average Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>-22.7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Max Return/ Largest Winning Trade</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>10.54999999999927</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Min Return/ Largest Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>-22.70000000000073</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Risk Reward</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Net Profit %</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Return Per Year</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>-12.15000000000146</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="F10:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="10">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Averaeg Index Value</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>18081.99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Total Trades</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Total Win Trades</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Total Loose Trades</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hit Ratio/ Trade win Ratio</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Day win Ratio</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2056.9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Gross Loss</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>-385.4000000000015</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Net Profit</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1671.499999999998</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Max Draw Up</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>927.6500000000015</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Max Draw Down</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>-561.7999999999993</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Draw UP Percentage</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>9006.309999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Draw Down Percentage</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>-253.06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Average Trades</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>119.39</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Average Winning Trade</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>293.84</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Average Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>-55.06</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Max Return/ Largest Winning Trade</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>659.4500000000007</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Min Return/ Largest Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>-110.3000000000029</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Risk Reward</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>-5.98</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Net Profit %</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Return Per Year</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1671.499999999998</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="F10:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="10">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Averaeg Index Value</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>23314.88</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Total Trades</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Total Win Trades</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Total Loose Trades</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hit Ratio/ Trade win Ratio</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>45.83</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Day win Ratio</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>84.62</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1078.349999999991</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Gross Loss</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>-678.299999999992</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Net Profit</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>400.0499999999993</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Max Draw Up</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>927.6500000000015</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Max Draw Down</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>-561.7999999999993</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Draw UP Percentage</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>9006.309999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Draw Down Percentage</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>-253.06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Average Trades</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Average Winning Trade</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>98.03</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Average Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>-52.18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Max Return/ Largest Winning Trade</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>289.3499999999985</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Min Return/ Largest Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>-105.1999999999971</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Risk Reward</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Net Profit %</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Return Per Year</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>400.0499999999993</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="F10:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="10">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Averaeg Index Value</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>27328.93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Total Trades</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Total Win Trades</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Total Loose Trades</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hit Ratio/ Trade win Ratio</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Day win Ratio</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Gross Loss</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>-316.25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Net Profit</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Max Draw Up</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>927.6500000000015</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Max Draw Down</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>-561.7999999999993</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Draw UP Percentage</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>9006.309999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Draw Down Percentage</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>-253.06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Average Trades</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Average Winning Trade</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>54.17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Average Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>-158.12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Max Return/ Largest Winning Trade</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>87.79999999999927</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Min Return/ Largest Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>-217.3500000000022</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Risk Reward</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Net Profit %</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Return Per Year</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="F10:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="10">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Averaeg Index Value</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>30506.11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Total Trades</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Total Win Trades</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Total Loose Trades</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hit Ratio/ Trade win Ratio</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Day win Ratio</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>165.6999999999971</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Gross Loss</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>-893.4499999999971</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Net Profit</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>-727.75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Max Draw Up</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>927.6500000000015</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Max Draw Down</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>-561.7999999999993</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Draw UP Percentage</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>9006.309999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Draw Down Percentage</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>-253.06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Average Trades</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>-48.52</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Average Winning Trade</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>82.84999999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Average Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>-68.73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Max Return/ Largest Winning Trade</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>157.2999999999993</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Min Return/ Largest Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>-223.2000000000007</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Risk Reward</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Net Profit %</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>-2.39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Return Per Year</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>-727.75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="F10:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="10">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Averaeg Index Value</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>32280.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Total Trades</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Total Win Trades</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Total Loose Trades</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hit Ratio/ Trade win Ratio</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Day win Ratio</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Gross Loss</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>-99.90000000000146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Net Profit</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>-99.90000000000146</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Max Draw Up</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>927.6500000000015</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Max Draw Down</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>-624.4499999999971</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Draw UP Percentage</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>9006.309999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Draw Down Percentage</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>-7433.93</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Average Trades</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>-99.90000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Average Winning Trade</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Average Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>-99.90000000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Max Return/ Largest Winning Trade</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Min Return/ Largest Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>-99.90000000000146</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Risk Reward</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Net Profit %</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Return Per Year</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>-99.90000000000146</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="F10:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="10">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Averaeg Index Value</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>35670.56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Total Trades</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Total Win Trades</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Total Loose Trades</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hit Ratio/ Trade win Ratio</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Day win Ratio</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>4396.949999999997</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Gross Loss</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>-1880.69999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Net Profit</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2516.250000000007</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Max Draw Up</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1435.799999999996</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Max Draw Down</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>-1172.650000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Draw UP Percentage</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>197.93</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Draw Down Percentage</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>-81.67</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Average Trades</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>114.38</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Average Winning Trade</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>439.69</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Average Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>-156.72</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Max Return/ Largest Winning Trade</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1344.799999999996</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Min Return/ Largest Loosing Trade</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>-632.6500000000015</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Risk Reward</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>-2.13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Net Profit %</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Return Per Year</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2516.250000000007</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Strategy 2/Strategy 2.xlsx
+++ b/Strategy 2/Strategy 2.xlsx
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-2.13</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="29">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-7.06</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="29">
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-0.46</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="29">
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-5.98</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="29">
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-2.75</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="29">
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-0.7</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="29">
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>112</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-2.13</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="29">
